--- a/biology/Zoologie/Ibis_vert/Ibis_vert.xlsx
+++ b/biology/Zoologie/Ibis_vert/Ibis_vert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mesembrinibis cayennensis
 L'Ibis vert (Mesembrinibis cayennensis) est une espèce d'oiseaux de la famille des Threskiornithidae, l'unique représentante du genre Mesembrinibis.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure de 45-58 cm et pèse 700-890g.
 Sous une bonne lumière, il émet plusieurs couleurs douces et subtiles dont un brillant vert laqué.
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,7 +587,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fréquente les forêts humides, les forêts galeries, les bois et bosquets marécageux, les berges boueuses des marécages forestiers et les rivières. Il se nourrit dans les marais ouverts et les savanes humides à proximité des zones boisées.
 </t>
@@ -602,7 +620,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit d'insectes (orthoptères, homoptères et coléoptères), d'amphibiens, de vers et de reptiles.
 </t>
@@ -633,7 +653,9 @@
           <t>Vol</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vole avec le cou tendu, mais les pattes courtes ne dépassent pas la queue. Les battements d'ailes sont plus balourdes et moins rapides par rapport aux autres ibis.
 </t>
@@ -664,7 +686,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle dépose 2 à 4 œufs vert olive foncé, avec parfois de fines taches ou lignes sombres à l'extrémité la plus large.
 </t>
@@ -695,7 +719,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien qu'il soit capable de s’adapter aux zones perturbées et à la fragmentation de l’habita, il est menacé par la déforestation du bassin amazonien.
 La population est soupçonnée d'être en déclin, cependant n'est pas globalement menacée et est actuellement évalué comme étant 'peu préoccupant'.
